--- a/data/Gorgos_Sycuro_SDC_Table_S1.xlsx
+++ b/data/Gorgos_Sycuro_SDC_Table_S1.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="14360" yWindow="3020" windowWidth="22400" windowHeight="19660"/>
+    <workbookView xWindow="14355" yWindow="3015" windowWidth="22395" windowHeight="19665"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="162">
   <si>
     <t>specimen</t>
   </si>
@@ -378,6 +378,135 @@
   </si>
   <si>
     <t>AGATGC</t>
+  </si>
+  <si>
+    <t>manuscript_id</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>S4</t>
+  </si>
+  <si>
+    <t>S5</t>
+  </si>
+  <si>
+    <t>S6</t>
+  </si>
+  <si>
+    <t>S7</t>
+  </si>
+  <si>
+    <t>S8</t>
+  </si>
+  <si>
+    <t>S9</t>
+  </si>
+  <si>
+    <t>S10</t>
+  </si>
+  <si>
+    <t>S11</t>
+  </si>
+  <si>
+    <t>S12</t>
+  </si>
+  <si>
+    <t>S13</t>
+  </si>
+  <si>
+    <t>S14</t>
+  </si>
+  <si>
+    <t>S15</t>
+  </si>
+  <si>
+    <t>S16</t>
+  </si>
+  <si>
+    <t>S17</t>
+  </si>
+  <si>
+    <t>S18</t>
+  </si>
+  <si>
+    <t>S19</t>
+  </si>
+  <si>
+    <t>S20</t>
+  </si>
+  <si>
+    <t>S21</t>
+  </si>
+  <si>
+    <t>S22</t>
+  </si>
+  <si>
+    <t>S23</t>
+  </si>
+  <si>
+    <t>S24</t>
+  </si>
+  <si>
+    <t>S25</t>
+  </si>
+  <si>
+    <t>S26</t>
+  </si>
+  <si>
+    <t>S27</t>
+  </si>
+  <si>
+    <t>S28</t>
+  </si>
+  <si>
+    <t>S29</t>
+  </si>
+  <si>
+    <t>S30</t>
+  </si>
+  <si>
+    <t>S31</t>
+  </si>
+  <si>
+    <t>S32</t>
+  </si>
+  <si>
+    <t>S33</t>
+  </si>
+  <si>
+    <t>S34</t>
+  </si>
+  <si>
+    <t>S35</t>
+  </si>
+  <si>
+    <t>S36</t>
+  </si>
+  <si>
+    <t>S37</t>
+  </si>
+  <si>
+    <t>S38</t>
+  </si>
+  <si>
+    <t>S39</t>
+  </si>
+  <si>
+    <t>S40</t>
+  </si>
+  <si>
+    <t>S41</t>
+  </si>
+  <si>
+    <t>S42</t>
   </si>
 </sst>
 </file>
@@ -385,7 +514,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -891,10 +1020,10 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -913,6 +1042,8 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="46">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1259,657 +1390,787 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C83"/>
+  <dimension ref="A1:D83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="C8" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="C11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="C12" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="D12" s="6" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="C13" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="D13" s="6" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="4" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="C14" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="4" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="C15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="C16" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="D16" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="4" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="C17" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="4" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="C18" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="4" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="C19" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="D19" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="4" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="C20" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="D20" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="4" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="C21" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="D21" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="4" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="C22" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="D22" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="4" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="C23" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="D23" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="4" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="C24" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="D24" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="4" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="C25" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="D25" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="4" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="C26" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="D26" s="5" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="4" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="C27" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="D27" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="4" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="C28" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="D28" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="4" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="C29" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="D29" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="4" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="C30" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="D30" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="4" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="C31" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="D31" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="4" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="C32" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="D32" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="4" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="C33" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="D33" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="4" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="C34" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="D34" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="4" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="B35" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="C35" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="D35" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="4" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="C36" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="D36" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="4" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="B37" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="C37" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="D37" s="5" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="4" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="C38" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="D38" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="4" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="B39" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="C39" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="D39" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="4" t="s">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="B40" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="C40" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="D40" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="4" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="B41" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="C41" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="D41" s="5" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="4" t="s">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="B42" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="C42" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="D42" s="5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="4" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="B43" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="C43" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="2"/>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B44" s="2"/>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="2"/>
+      <c r="C44" s="2"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B45" s="2"/>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="2"/>
+      <c r="C45" s="2"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B46" s="2"/>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="2"/>
+      <c r="C46" s="2"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B47" s="2"/>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="2"/>
+      <c r="C47" s="2"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B48" s="2"/>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="2"/>
+      <c r="C48" s="2"/>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" s="2"/>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="2"/>
+      <c r="C49" s="2"/>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" s="2"/>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="2"/>
+      <c r="C50" s="2"/>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B51" s="2"/>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="2"/>
+      <c r="C51" s="2"/>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" s="2"/>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="2"/>
+      <c r="C52" s="2"/>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B53" s="2"/>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="2"/>
+      <c r="C53" s="2"/>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B54" s="2"/>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="2"/>
+      <c r="C54" s="2"/>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B55" s="2"/>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="2"/>
+      <c r="C55" s="2"/>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B56" s="2"/>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="2"/>
+      <c r="C56" s="2"/>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B57" s="2"/>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="2"/>
+      <c r="C57" s="2"/>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B58" s="2"/>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="2"/>
+      <c r="C58" s="2"/>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B59" s="2"/>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="2"/>
+      <c r="C59" s="2"/>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60" s="2"/>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="2"/>
+      <c r="C60" s="2"/>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B61" s="2"/>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="2"/>
+      <c r="C61" s="2"/>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B62" s="2"/>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="2"/>
+      <c r="C62" s="2"/>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B63" s="2"/>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="2"/>
+      <c r="C63" s="2"/>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B64" s="2"/>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="2"/>
+      <c r="C64" s="2"/>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65" s="2"/>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="2"/>
+      <c r="C65" s="2"/>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B66" s="2"/>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="2"/>
+      <c r="C66" s="2"/>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B67" s="2"/>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="2"/>
+      <c r="C67" s="2"/>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B68" s="2"/>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="2"/>
+      <c r="C68" s="2"/>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B69" s="2"/>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="2"/>
+      <c r="C69" s="2"/>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B70" s="2"/>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="2"/>
+      <c r="C70" s="2"/>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B71" s="2"/>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="2"/>
+      <c r="C71" s="2"/>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B72" s="2"/>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="2"/>
+      <c r="C72" s="2"/>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B73" s="2"/>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="2"/>
+      <c r="C73" s="2"/>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B74" s="2"/>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="2"/>
+      <c r="C74" s="2"/>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B75" s="2"/>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="2"/>
+      <c r="C75" s="2"/>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B76" s="2"/>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" s="2"/>
+      <c r="C76" s="2"/>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B77" s="2"/>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="2"/>
+      <c r="C77" s="2"/>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B78" s="2"/>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="2"/>
+      <c r="C78" s="2"/>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B79" s="2"/>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="2"/>
+      <c r="C79" s="2"/>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B80" s="2"/>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" s="2"/>
+      <c r="C80" s="2"/>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B81" s="2"/>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" s="2"/>
+      <c r="C81" s="2"/>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B82" s="2"/>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" s="2"/>
+      <c r="C82" s="2"/>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
     </row>
   </sheetData>
-  <sortState ref="A2:B43">
-    <sortCondition ref="B2:B43"/>
+  <sortState ref="B2:C43">
+    <sortCondition ref="C2:C43"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1924,7 +2185,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -1941,7 +2202,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
